--- a/RA/Praktikum5/Template_Reservation_Table.xlsx
+++ b/RA/Praktikum5/Template_Reservation_Table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>Aufgabe:</t>
   </si>
@@ -47,6 +47,57 @@
   </si>
   <si>
     <t>Vorgabe der Pipeline-Stufen: Klassische 5-Stufen RISC Pipeline</t>
+  </si>
+  <si>
+    <t>l.addi r5,r0,0                     # set r5 to 0 - this is the loop counter\n</t>
+  </si>
+  <si>
+    <t>l.addi %0,r0,0                     # set result to 0\n</t>
+  </si>
+  <si>
+    <t>l.addi r6,%1,0                     # put start address of input in r6\n</t>
+  </si>
+  <si>
+    <t>0:                                 # start of loop\n</t>
+  </si>
+  <si>
+    <t>l.lwz r7,0(r6)                     # load next value to be checked\n</t>
+  </si>
+  <si>
+    <t>l.sfgtsi r7,0                      # set flag if &gt;0\n</t>
+  </si>
+  <si>
+    <t>l.bnf 1f                           # if not positive, cont. loop without incrementing\n</t>
+  </si>
+  <si>
+    <t>l.addi r6,r6,4                     # increment position in memory (delay slot!)\n</t>
+  </si>
+  <si>
+    <t>l.addi %0,%0,1                     # increment number of counted positives\n</t>
+  </si>
+  <si>
+    <t>1:                                 # continue loop...\n</t>
+  </si>
+  <si>
+    <t>l.sfeqi r5,  STR(NR_ELEMENTS-1) " # check if end of loop reached\n"</t>
+  </si>
+  <si>
+    <t>l.bnf 0b                           # if not all iterations are done, do another loop\n</t>
+  </si>
+  <si>
+    <t>lwz</t>
+  </si>
+  <si>
+    <t>sfgtsi</t>
+  </si>
+  <si>
+    <t>bnf</t>
+  </si>
+  <si>
+    <t>sfeqi</t>
+  </si>
+  <si>
+    <t>addi</t>
   </si>
 </sst>
 </file>
@@ -157,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -169,11 +220,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -295,6 +350,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -312,6 +381,184 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -615,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V27"/>
+  <dimension ref="B2:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,12 +874,12 @@
     <col min="3" max="22" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -656,7 +903,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -739,14 +986,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="AA5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -762,15 +1024,30 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="AC6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -785,16 +1062,31 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="AC7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -809,17 +1101,31 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -831,19 +1137,34 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="AC9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -854,20 +1175,35 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="AC10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -877,21 +1213,36 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="AC11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -900,9 +1251,14 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="AC12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -910,12 +1266,22 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -923,9 +1289,14 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="AC13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -934,21 +1305,36 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="AC14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -958,20 +1344,32 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -982,18 +1380,31 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1015,8 +1426,11 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AC17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1038,8 +1452,11 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1062,7 +1479,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1085,7 +1502,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1108,7 +1525,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1131,7 +1548,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1154,7 +1571,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1177,7 +1594,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1200,7 +1617,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1223,7 +1640,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1247,18 +1664,18 @@
       <c r="V27" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C27">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
-      <formula>"   "</formula>
+  <conditionalFormatting sqref="C6:C27 D9:K9 J10:L10 D10:H11 J11:M11 D12:I12 K12:N12 D13:J13 L13:O13 D14:K14 M14:P14 D15:L15 N15:Q15 D16:M16 O16:R16">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"[    ]"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"[    ]"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
-      <formula>"[    ]"</formula>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"   "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:V27">
+  <conditionalFormatting sqref="D6:V8 D17:V27 L9:V9 M10:V10 N11:V11 O12:V12 P13:V13 Q14:V14 R15:V15 S16:V16">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"[    ]"</formula>
     </cfRule>
@@ -1278,7 +1695,7 @@
           <x14:formula1>
             <xm:f>Parameter!$C$5:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:V27</xm:sqref>
+          <xm:sqref>J9:K9 C6:K8 L6:L9 J10:L10 C9:H11 M6:M10 J11:M11 C12:I12 N6:N11 K12:N12 C13:J13 O6:O12 L13:O13 C14:K14 P6:P13 M14:P14 C15:L15 Q6:Q14 N15:Q15 S6:V27 R6:R15 O16:R16 C17:R27 C16:M16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
